--- a/src/main/java/com/marksman/doc/2018下半年学习计划.xlsx
+++ b/src/main/java/com/marksman/doc/2018下半年学习计划.xlsx
@@ -52,7 +52,7 @@
   </si>
   <si>
     <t>淘淘商城，dubbo，
-redis，消息中间件，单点登录等</t>
+redis，消息中间件，单点登录，秒杀等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
